--- a/data.new.xlsx
+++ b/data.new.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mato\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\alvanyos_szolgalat\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB03008A-0E38-446D-B17E-D503A37D2768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>/</t>
   </si>
@@ -374,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,7 +628,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -943,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +1016,7 @@
       <c r="E3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="18" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1495,7 +1496,7 @@
       <c r="E27" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="18" t="s">
         <v>0</v>
       </c>
     </row>
